--- a/discord-bot/KOAB3606.xlsx
+++ b/discord-bot/KOAB3606.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/achen1076/Desktop/hipe/public/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/achen1076/Desktop/3606/discord-bot/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E65259D-9578-5345-A4EE-FE6B17EF639F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B443B01-3DCB-AD42-844B-E8CA38A58736}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1540" yWindow="2860" windowWidth="25520" windowHeight="16540" xr2:uid="{D4FAC217-7F43-41FD-A29A-2DECA4C0D425}"/>
   </bookViews>
@@ -839,7 +839,13 @@
   </cellStyles>
   <dxfs count="9">
     <dxf>
-      <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+      <numFmt numFmtId="3" formatCode="#,##0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="3" formatCode="#,##0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="3" formatCode="#,##0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
@@ -851,13 +857,7 @@
       <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="3" formatCode="#,##0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="3" formatCode="#,##0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="3" formatCode="#,##0"/>
+      <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
@@ -888,17 +888,17 @@
     <tableColumn id="1" xr3:uid="{C1C32195-5E18-4180-A47B-304F81BC93A3}" name="Governor Name"/>
     <tableColumn id="2" xr3:uid="{55C499D4-7764-435E-B583-8C553649ED80}" name="Governor ID" dataDxfId="8"/>
     <tableColumn id="3" xr3:uid="{EB0382D7-2287-48D2-9EFD-353DD36A198C}" name="Power" dataDxfId="7" dataCellStyle="Comma"/>
-    <tableColumn id="5" xr3:uid="{7C8F75FD-47CB-4082-91CE-DC88935AA17B}" name="Kill Points" dataDxfId="3" dataCellStyle="Comma"/>
-    <tableColumn id="6" xr3:uid="{88E5EC71-A8D3-4322-8BBA-EA75CF8B6F61}" name="Deads" dataDxfId="2" dataCellStyle="Comma"/>
-    <tableColumn id="7" xr3:uid="{890CE103-5085-4357-BB9F-3D13DCBD8DCA}" name="T4 Kills" dataDxfId="1" dataCellStyle="Comma"/>
-    <tableColumn id="8" xr3:uid="{299FD0AE-4882-4C6C-8839-1AB767CDE42B}" name="T5 Kills" dataDxfId="0" dataCellStyle="Comma"/>
-    <tableColumn id="11" xr3:uid="{8C2476F7-D066-454E-BF1A-ED5E35E17058}" name="Required Deads" dataDxfId="6"/>
-    <tableColumn id="14" xr3:uid="{90618AE4-8799-4E18-9F08-172343FB241D}" name="Required KP" dataDxfId="5">
+    <tableColumn id="5" xr3:uid="{7C8F75FD-47CB-4082-91CE-DC88935AA17B}" name="Kill Points" dataDxfId="6" dataCellStyle="Comma"/>
+    <tableColumn id="6" xr3:uid="{88E5EC71-A8D3-4322-8BBA-EA75CF8B6F61}" name="Deads" dataDxfId="5" dataCellStyle="Comma"/>
+    <tableColumn id="7" xr3:uid="{890CE103-5085-4357-BB9F-3D13DCBD8DCA}" name="T4 Kills" dataDxfId="4" dataCellStyle="Comma"/>
+    <tableColumn id="8" xr3:uid="{299FD0AE-4882-4C6C-8839-1AB767CDE42B}" name="T5 Kills" dataDxfId="3" dataCellStyle="Comma"/>
+    <tableColumn id="11" xr3:uid="{8C2476F7-D066-454E-BF1A-ED5E35E17058}" name="Required Deads" dataDxfId="2"/>
+    <tableColumn id="14" xr3:uid="{90618AE4-8799-4E18-9F08-172343FB241D}" name="Required KP" dataDxfId="1">
       <calculatedColumnFormula>IF(Table4[[#This Row],[Power]]&lt;60000000,300000000,
    IF(Table4[[#This Row],[Power]]&lt;80000000,Table4[[#This Row],[Power]]*6,
    IF(Table4[[#This Row],[Power]]&lt;100000000,Table4[[#This Row],[Power]]*6.5,Table4[[#This Row],[Power]]*7)))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{9A9F4D1E-97C0-4710-8744-DDAF37353C15}" name="DKP" dataDxfId="4">
+    <tableColumn id="4" xr3:uid="{9A9F4D1E-97C0-4710-8744-DDAF37353C15}" name="DKP" dataDxfId="0">
       <calculatedColumnFormula>Table4[[#This Row],[Required Deads]]*150+Table4[[#This Row],[Required KP]]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -1225,8 +1225,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{05B30EDE-3C8C-462C-B373-5E517D6159AB}">
   <dimension ref="A1:J114"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="D38" sqref="D38"/>
+    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2940,7 +2940,7 @@
         <v>77918411</v>
       </c>
       <c r="D48" s="5">
-        <v>6384701414</v>
+        <v>6334701414</v>
       </c>
       <c r="E48" s="5">
         <v>27239224</v>
